--- a/Monitor.xlsx
+++ b/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71994A73-F03A-4460-854D-69D518FBF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB31231F-E2A5-4BE4-81A2-87072FCD730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06AF3F1B-2BDF-4C55-84DD-8A9A62A0AD99}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>GENESIS TECHNOLOGIES LTD</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Nayon</t>
   </si>
   <si>
-    <t>Enamul</t>
-  </si>
-  <si>
     <t>3rd Floor</t>
   </si>
   <si>
@@ -105,15 +102,6 @@
     <t>3th Floor</t>
   </si>
   <si>
-    <t>ASUS Monitor</t>
-  </si>
-  <si>
-    <t>VP229HE</t>
-  </si>
-  <si>
-    <t>Faysal Comercial</t>
-  </si>
-  <si>
     <t>2️⃣</t>
   </si>
   <si>
@@ -127,18 +115,6 @@
   </si>
   <si>
     <t>LV1911</t>
-  </si>
-  <si>
-    <t>D1918Ho</t>
-  </si>
-  <si>
-    <t>Mostak</t>
-  </si>
-  <si>
-    <t>G2QR5D2</t>
-  </si>
-  <si>
-    <t>Kawser</t>
   </si>
   <si>
     <t>E1916HVF</t>
@@ -308,25 +284,7 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,6 +306,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,410 +640,314 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7F5AB-BA30-4A66-B738-AC22708EABB4}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
